--- a/medicine/Enfance/Caroline_Solé/Caroline_Solé.xlsx
+++ b/medicine/Enfance/Caroline_Solé/Caroline_Solé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caroline_Sol%C3%A9</t>
+          <t>Caroline_Solé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caroline Solé, née le 11 mai 1978 à Rome, est une romancière française de littérature jeunesse. Elle partage sa vie entre Paris et la Bretagne.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caroline Solé, née le 11 mai 1978 à Rome, est une romancière française de littérature jeunesse. Elle partage sa vie entre Paris et la Bretagne.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caroline_Sol%C3%A9</t>
+          <t>Caroline_Solé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2015, Caroline Solé publie son premier roman jeunesse La pyramide des besoins humains aux éditions L'école des loisirs. L'auteure aborde la construction adolescente et la quête intérieure à travers le parcours de Christopher Scott, un jeune fugueur candidat à un nouveau jeu de téléréalité, basé sur la pyramide des besoins.
-En 2017, Caroline Solé croise les destins de trois nouveaux protagonistes sur fond d'enquête policière[1] avec La petite romancière, la star et l'assassin publié chez Albin Michel. Âgée de quinze ans, Cheyenne occupe ses journées à espionner sa voisine, une célèbre actrice. Cette routine vacille lors de la disparition d'un enfant et l'arrivée d'un marginal au comportement suspect[2]. Le roman est sélectionné pour les Pépites 2017 du Salon du livre et de la presse jeunesse de Montreuil [3].
-Akita et les grizzlys, illustré par Gaya Wisniewski, est publié en 2019, roman jeunesse dans lequel la petite « Akita va partir en traîneau, avec ses parents, à travers la forêt polaire[4]. ». Le roman est Pépite de la Fiction junior[5] au Salon du livre et de la presse jeunesse de Montreuil.
+En 2017, Caroline Solé croise les destins de trois nouveaux protagonistes sur fond d'enquête policière avec La petite romancière, la star et l'assassin publié chez Albin Michel. Âgée de quinze ans, Cheyenne occupe ses journées à espionner sa voisine, une célèbre actrice. Cette routine vacille lors de la disparition d'un enfant et l'arrivée d'un marginal au comportement suspect. Le roman est sélectionné pour les Pépites 2017 du Salon du livre et de la presse jeunesse de Montreuil .
+Akita et les grizzlys, illustré par Gaya Wisniewski, est publié en 2019, roman jeunesse dans lequel la petite « Akita va partir en traîneau, avec ses parents, à travers la forêt polaire. ». Le roman est Pépite de la Fiction junior au Salon du livre et de la presse jeunesse de Montreuil.
 Dans La fille et le fusil, son troisième roman sur l'adolescence publié en 2020, une jeune fille tourmentée prend en otage un lycéen et un homme politique célèbre.
-En 2021, son roman le plus personnel, D'après mon adolescence, est salué par la presse. La romancière se penche sur ces journaux intimes de jeunesse. "Le texte est à fleur de peau, bouleversant, cruellement sincère" selon Télérama. [2] "Une superbe autofiction" selon Le Point. [3] 
+En 2021, son roman le plus personnel, D'après mon adolescence, est salué par la presse. La romancière se penche sur ces journaux intimes de jeunesse. "Le texte est à fleur de peau, bouleversant, cruellement sincère" selon Télérama.  "Une superbe autofiction" selon Le Point.  
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caroline_Sol%C3%A9</t>
+          <t>Caroline_Solé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans sur l'adolescence
-La Pyramide des besoins humains, L'École des loisirs, coll. Médium GF, 128 p, 2015,  (ISBN 2-211-22197-1)
-La Petite Romancière, la Star et l'Assassin[1], Albin Michel, 176 p, 2017,  (ISBN 2-226-39671-3)
+          <t>Romans sur l'adolescence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Pyramide des besoins humains, L'École des loisirs, coll. Médium GF, 128 p, 2015,  (ISBN 2-211-22197-1)
+La Petite Romancière, la Star et l'Assassin, Albin Michel, 176 p, 2017,  (ISBN 2-226-39671-3)
 La Fille et le Fusil, Albin Michel, 224 p, 2020,  (ISBN 978-2226435972)
-D'après mon adolescence - Journal intime, Albin Michel, 136 p, 2021l[6]
-Livres pour enfants
-Akita et les grizzlys[4], illustrations de Gaya Wisniewski, L'École des loisirs, coll. Mouche, 2019
-Thao et le Hamö secret, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Mouche, 2020
-Jimi de la planète aux couleurs, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Moucheron, 2021
-Jimi Bleu nuit, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Moucheron, 2022</t>
+D'après mon adolescence - Journal intime, Albin Michel, 136 p, 2021l</t>
         </is>
       </c>
     </row>
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caroline_Sol%C3%A9</t>
+          <t>Caroline_Solé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,17 +596,96 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Akita et les grizzlys, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Mouche, 2019
+Thao et le Hamö secret, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Mouche, 2020
+Jimi de la planète aux couleurs, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Moucheron, 2021
+Jimi Bleu nuit, illustrations de Gaya Wisniewski, L'École des loisirs, coll. Moucheron, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caroline_Solé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Sol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Akita et les grizzlys (2019)
-Pépite de la Fiction junior 2019 [5] du Salon du livre et de la presse jeunesse de Montreuil, illustrations de Gaya Wisniewski.
-La pyramide des besoins humains (2015)
-Lauréat de cinq prix littéraires :
-Prix Les Escales littéraires d'Auvergne 2016 [7]
-Prix Enlivrez-vous à Thionville 2016 [8]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Akita et les grizzlys (2019)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pépite de la Fiction junior 2019  du Salon du livre et de la presse jeunesse de Montreuil, illustrations de Gaya Wisniewski.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caroline_Solé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caroline_Sol%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La pyramide des besoins humains (2015)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lauréat de cinq prix littéraires :
+Prix Les Escales littéraires d'Auvergne 2016 
+Prix Enlivrez-vous à Thionville 2016 
 Prix Sainte-Beuve des collégiens 2017
 Prix des Lycéens et collégiens de la ville de Rillieux-La-Pape 2017
 Prix C@Lire 2017</t>
